--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32277A1-638A-4001-AF6C-C1A5049621E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC0584-095E-4604-85A8-F85686EB7EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Eje longitudinal</t>
   </si>
@@ -105,6 +99,9 @@
   </si>
   <si>
     <t>Ejes</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -539,147 +536,146 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C22" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>

--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC0584-095E-4604-85A8-F85686EB7EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F7DC6-EF6B-427F-9303-282E3E5CCC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Corredores troncales</t>
   </si>
   <si>
-    <t>Fuente: SICT. Subsecretaria de Infraestructura.</t>
-  </si>
-  <si>
     <t>Cooredor</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Fuente: SICT. Subsecretaria de Infraestructura. Dirección General de Desarrollo Carretero.</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -664,13 +664,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6"/>
     </row>

--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F7DC6-EF6B-427F-9303-282E3E5CCC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83188D07-17B4-4EE8-9B34-2A65B73FF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Corredores troncales</t>
   </si>
   <si>
-    <t>Cooredor</t>
-  </si>
-  <si>
     <t>Ejes</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Fuente: SICT. Subsecretaria de Infraestructura. Dirección General de Desarrollo Carretero.</t>
+  </si>
+  <si>
+    <t>Corredor</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -664,13 +664,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6"/>
     </row>

--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83188D07-17B4-4EE8-9B34-2A65B73FF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142D7E-DB98-42CF-9BC8-A7EF48D607D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -89,19 +89,19 @@
     <t>México - Guadalajara - Tepic – Mazatlán – Guaymas - Hermosillo – Nogales con ramal a Tijuana</t>
   </si>
   <si>
-    <t>Corredores troncales</t>
-  </si>
-  <si>
     <t>Ejes</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Fuente: SICT. Subsecretaria de Infraestructura. Dirección General de Desarrollo Carretero.</t>
   </si>
   <si>
     <t>Corredor</t>
+  </si>
+  <si>
+    <t>Corredores carreteros</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -115,40 +115,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -293,7 +293,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,28 +301,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -331,14 +331,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -515,34 +515,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="3" width="83.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="83.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
@@ -590,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
@@ -622,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
@@ -662,26 +662,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>

--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142D7E-DB98-42CF-9BC8-A7EF48D607D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60271A-ED86-4119-AF34-5A7916876408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -120,19 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -146,11 +133,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,38 +241,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,178 +517,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="83.625" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:3" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Corredores_Troncales.xlsx
+++ b/Corredores_Troncales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60271A-ED86-4119-AF34-5A7916876408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89814A9-5BD0-4051-BC33-8D168F334D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="83.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="11" style="2"/>
   </cols>
